--- a/user_preferences.xlsx
+++ b/user_preferences.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,6 +613,132 @@
         <v>20</v>
       </c>
     </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>2000</v>
+      </c>
+      <c r="B17">
+        <v>140</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>2000</v>
+      </c>
+      <c r="B18">
+        <v>140</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>2000</v>
+      </c>
+      <c r="B19">
+        <v>140</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1000</v>
+      </c>
+      <c r="B20">
+        <v>140</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1000</v>
+      </c>
+      <c r="B21">
+        <v>140</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>1000</v>
+      </c>
+      <c r="B22">
+        <v>140</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>1000</v>
+      </c>
+      <c r="B23">
+        <v>140</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>1000</v>
+      </c>
+      <c r="B24">
+        <v>140</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>1000</v>
+      </c>
+      <c r="B25">
+        <v>140</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/user_preferences.xlsx
+++ b/user_preferences.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,6 +739,90 @@
         <v>20</v>
       </c>
     </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>2000</v>
+      </c>
+      <c r="B26">
+        <v>140</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>1000</v>
+      </c>
+      <c r="B27">
+        <v>140</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>500</v>
+      </c>
+      <c r="B28">
+        <v>140</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>500</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>500</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>500</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/user_preferences.xlsx
+++ b/user_preferences.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,6 +823,118 @@
         <v>25</v>
       </c>
     </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1000</v>
+      </c>
+      <c r="B32">
+        <v>140</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>3000</v>
+      </c>
+      <c r="B33">
+        <v>140</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>8000</v>
+      </c>
+      <c r="B34">
+        <v>140</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>2000</v>
+      </c>
+      <c r="B35">
+        <v>190</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>2000</v>
+      </c>
+      <c r="B36">
+        <v>190</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>5000</v>
+      </c>
+      <c r="B37">
+        <v>190</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>5000</v>
+      </c>
+      <c r="B38">
+        <v>190</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>5000</v>
+      </c>
+      <c r="B39">
+        <v>190</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/user_preferences.xlsx
+++ b/user_preferences.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -935,6 +935,118 @@
         <v>20</v>
       </c>
     </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>1200</v>
+      </c>
+      <c r="B40">
+        <v>140</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>3000</v>
+      </c>
+      <c r="B41">
+        <v>140</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>3000</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>3000</v>
+      </c>
+      <c r="B43">
+        <v>150</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>3000</v>
+      </c>
+      <c r="B44">
+        <v>150</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>1500</v>
+      </c>
+      <c r="B45">
+        <v>150</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>1500</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>2000</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/user_preferences.xlsx
+++ b/user_preferences.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,6 +1141,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B51" t="n">
+        <v>140</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
